--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1617.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1617.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.161290504636279</v>
+        <v>0.7371370792388916</v>
       </c>
       <c r="B1">
-        <v>2.747576434490902</v>
+        <v>2.541946411132812</v>
       </c>
       <c r="C1">
-        <v>4.557119281615194</v>
+        <v>4.940074920654297</v>
       </c>
       <c r="D1">
-        <v>2.202617564882254</v>
+        <v>2.885887145996094</v>
       </c>
       <c r="E1">
-        <v>1.056079005883353</v>
+        <v>0.8921214938163757</v>
       </c>
     </row>
   </sheetData>
